--- a/ig/nr-init-telesuivi/StructureDefinition-fr-patient.xlsx
+++ b/ig/nr-init-telesuivi/StructureDefinition-fr-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesuivi/StructureDefinition/fr-patient</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/StructureDefinition/fr-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-23T09:53:16+00:00</t>
+    <t>2023-11-28T14:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,7 +479,7 @@
     <t>eyecolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/telesuivi/StructureDefinition/EyeColor}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/telesurveillance/StructureDefinition/EyeColor}
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesuivi/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1772,7 +1772,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1787,7 +1787,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.74609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="86.55859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
